--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92A820-14D1-49FD-870E-6D4CBE885637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -22,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -659,7 +665,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,7 +1003,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1032,7 +1038,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1117,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1196,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1269,7 +1275,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1354,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1696,14 +1702,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1714,25 +1720,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1755,7 +1761,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1764,7 +1770,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1773,7 +1779,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1782,7 +1788,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1791,7 +1797,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1800,7 +1806,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1810,14 +1816,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10"/>
+  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1828,47 +1834,47 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>58</v>
       </c>
@@ -1915,7 +1921,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>60</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>61</v>
       </c>
@@ -1987,7 +1993,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>62</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>63</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>64</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>65</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>67</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>68</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>69</v>
       </c>
@@ -2179,7 +2185,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>70</v>
       </c>
@@ -2203,7 +2209,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>71</v>
       </c>
@@ -2227,7 +2233,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>72</v>
       </c>
@@ -2251,7 +2257,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>73</v>
       </c>
@@ -2275,7 +2281,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>74</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>75</v>
       </c>
@@ -2323,7 +2329,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>76</v>
       </c>
@@ -2347,7 +2353,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>77</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>78</v>
       </c>
@@ -2395,7 +2401,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>79</v>
       </c>
@@ -2419,7 +2425,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>80</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>81</v>
       </c>
@@ -2467,7 +2473,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>82</v>
       </c>
@@ -2491,7 +2497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>83</v>
       </c>
@@ -2515,7 +2521,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>84</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>85</v>
       </c>
@@ -2563,7 +2569,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>86</v>
       </c>
@@ -2587,7 +2593,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>87</v>
       </c>
@@ -2611,7 +2617,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>88</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>89</v>
       </c>
@@ -2659,7 +2665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>90</v>
       </c>
@@ -2683,7 +2689,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>91</v>
       </c>
@@ -2707,7 +2713,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>92</v>
       </c>
@@ -2731,7 +2737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>93</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>148</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>149</v>
       </c>
@@ -2803,7 +2809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>150</v>
       </c>
@@ -2827,7 +2833,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>151</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>152</v>
       </c>
@@ -2875,7 +2881,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>153</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>155</v>
       </c>
@@ -2923,7 +2929,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>168</v>
       </c>
@@ -2947,7 +2953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>169</v>
       </c>
@@ -2972,14 +2978,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44">
-    <sortState ref="A9:G44">
+  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2990,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3001,47 +3007,47 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3067,7 +3073,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3094,7 +3100,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3119,7 +3125,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3144,7 +3150,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3169,7 +3175,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3194,7 +3200,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3219,7 +3225,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3247,13 +3253,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3264,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3272,49 +3278,49 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3365,7 +3371,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3390,7 +3396,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3411,11 +3417,11 @@
         <v>176</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3440,7 +3446,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3465,7 +3471,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3490,7 +3496,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3511,11 +3517,11 @@
         <v>142</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -3536,18 +3542,18 @@
         <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14"/>
+  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3558,57 +3564,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3634,7 +3640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3659,7 +3665,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3680,11 +3686,11 @@
         <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3705,11 +3711,11 @@
         <v>139</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3734,7 +3740,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3759,7 +3765,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3780,11 +3786,11 @@
         <v>142</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3805,11 +3811,11 @@
         <v>136</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -3830,11 +3836,11 @@
         <v>136</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3855,11 +3861,11 @@
         <v>136</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -3884,7 +3890,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -3909,7 +3915,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
@@ -3934,7 +3940,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -3959,7 +3965,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -3984,7 +3990,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
@@ -4009,7 +4015,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4020,13 +4026,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15"/>
+  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4037,7 +4043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -4048,46 +4054,46 @@
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4113,7 +4119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -4138,7 +4144,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -4163,7 +4169,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -4188,7 +4194,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -4213,7 +4219,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -4238,7 +4244,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -4263,7 +4269,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -4288,7 +4294,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -4313,7 +4319,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -4338,7 +4344,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -4363,7 +4369,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -4388,7 +4394,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
@@ -4413,7 +4419,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -4438,7 +4444,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -4463,7 +4469,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
@@ -4489,13 +4495,13 @@
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23"/>
+  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Sem5\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 5\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F92A820-14D1-49FD-870E-6D4CBE885637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -665,7 +664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1003,7 +1002,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1709,7 +1708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1720,25 +1719,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" customWidth="1"/>
-    <col min="5" max="225" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="5" max="225" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1761,7 +1760,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1770,7 +1769,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1779,7 +1778,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1788,7 +1787,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1797,7 +1796,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1806,7 +1805,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1816,14 +1815,14 @@
       <c r="D10" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:C10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -1834,47 +1833,47 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.88671875" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="113.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
         <v>58</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>60</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
         <v>61</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
         <v>62</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>63</v>
       </c>
@@ -2041,7 +2040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>64</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
         <v>65</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
         <v>67</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>68</v>
       </c>
@@ -2161,7 +2160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>69</v>
       </c>
@@ -2185,7 +2184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>70</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
         <v>71</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
         <v>72</v>
       </c>
@@ -2257,7 +2256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>73</v>
       </c>
@@ -2281,7 +2280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
         <v>74</v>
       </c>
@@ -2305,7 +2304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
         <v>75</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>76</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
         <v>77</v>
       </c>
@@ -2377,7 +2376,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
         <v>78</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
         <v>79</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2448,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
         <v>81</v>
       </c>
@@ -2473,7 +2472,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
         <v>82</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
         <v>83</v>
       </c>
@@ -2521,7 +2520,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>84</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
         <v>85</v>
       </c>
@@ -2569,7 +2568,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
         <v>86</v>
       </c>
@@ -2593,7 +2592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
         <v>87</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
         <v>88</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
         <v>89</v>
       </c>
@@ -2665,7 +2664,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
         <v>90</v>
       </c>
@@ -2689,7 +2688,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>91</v>
       </c>
@@ -2713,7 +2712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
         <v>92</v>
       </c>
@@ -2737,7 +2736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>93</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>148</v>
       </c>
@@ -2785,7 +2784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>149</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
         <v>150</v>
       </c>
@@ -2833,7 +2832,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
         <v>151</v>
       </c>
@@ -2857,7 +2856,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
         <v>152</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>153</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
         <v>155</v>
       </c>
@@ -2929,7 +2928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
         <v>168</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
         <v>169</v>
       </c>
@@ -2978,14 +2977,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:G44" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:G44">
+  <autoFilter ref="A8:G44">
+    <sortState ref="A9:G44">
       <sortCondition ref="A8:A44"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D44">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2996,7 +2995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3007,47 +3006,47 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5546875" style="17"/>
+    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5703125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3125,7 +3124,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3150,7 +3149,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3175,7 +3174,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3200,7 +3199,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3225,7 +3224,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3253,13 +3252,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D15">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G15">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3270,7 +3269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
@@ -3281,46 +3280,46 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3371,7 +3370,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3396,7 +3395,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3421,7 +3420,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3446,7 +3445,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3471,7 +3470,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3496,7 +3495,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3521,7 +3520,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -3547,13 +3546,13 @@
       <c r="H16" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A8:F14"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G16">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D16">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3564,57 +3563,57 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3640,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3665,7 +3664,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3690,7 +3689,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3715,7 +3714,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3740,7 +3739,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3765,7 +3764,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3790,7 +3789,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3815,7 +3814,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -3840,7 +3839,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3865,7 +3864,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -3890,7 +3889,7 @@
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -3915,7 +3914,7 @@
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
@@ -3940,7 +3939,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -3965,7 +3964,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -3990,7 +3989,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
@@ -4015,7 +4014,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4026,13 +4025,13 @@
       <c r="H24" s="32"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F15" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A8:F15"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D19">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0400-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4043,57 +4042,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66.6640625" customWidth="1"/>
-    <col min="9" max="229" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66.7109375" customWidth="1"/>
+    <col min="9" max="229" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -4144,7 +4143,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -4169,7 +4168,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -4194,7 +4193,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -4219,7 +4218,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -4244,7 +4243,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -4269,7 +4268,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -4294,7 +4293,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -4319,7 +4318,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -4344,7 +4343,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -4369,7 +4368,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -4394,7 +4393,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
@@ -4419,7 +4418,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -4444,7 +4443,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -4465,11 +4464,11 @@
         <v>141</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
@@ -4490,18 +4489,18 @@
         <v>141</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="H23" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A8:F23" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
+  <autoFilter ref="A8:F23"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G23">
       <formula1>"Pending, Doing, Deferred, Done"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D9:D18">
       <formula1>"Simple,Medium,Complex"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 5\SWP391\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
   </bookViews>
@@ -27,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Product!$A$8:$G$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RoC!$A$3:$C$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -664,7 +659,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1037,7 +1032,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{82AD362D-90D4-8C43-A624-6085E63B8564}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1116,7 +1111,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{360CF83D-120C-394B-85F0-B0A23B7BB7E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1195,7 +1190,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AC40858F-DBB6-E64A-9716-BF5235FE7AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1274,7 +1269,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DC60F863-E6CD-2E4F-BDD5-E8A0CEA1F02E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1348,7 @@
         <xdr:cNvPr id="2" name="Picture 3" descr="2017-FPTU-L-01">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6389CF4C-730B-6A49-9892-6AA66DEAF33A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1701,7 +1696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3570,8 +3565,8 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F10:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4049,8 +4044,8 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4211,7 +4206,7 @@
         <v>240</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>29</v>
@@ -4436,7 +4431,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G21" s="35" t="s">
         <v>29</v>

--- a/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
+++ b/Documents/SE1606_SWP391_OnlineShop_Backlog_W5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPTU\Ky5\SWP391\Week 5\SWP391\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\SWP391\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoC" sheetId="4" r:id="rId1"/>
@@ -1719,25 +1719,25 @@
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="225" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
+    <col min="5" max="225" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1760,7 +1760,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <f t="shared" ref="A5:A10" si="0">ROW()-3</f>
         <v>2</v>
@@ -1769,7 +1769,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="12"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1778,7 +1778,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1787,7 +1787,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1796,7 +1796,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1805,7 +1805,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1828,52 +1828,52 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="113.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="229" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="113.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.2" x14ac:dyDescent="0.3">
       <c r="D5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="D6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>6</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>58</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>60</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A12" s="44" t="s">
         <v>61</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
         <v>62</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
         <v>63</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A15" s="44" t="s">
         <v>64</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44" t="s">
         <v>65</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A17" s="44" t="s">
         <v>66</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="44" t="s">
         <v>67</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>68</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A20" s="44" t="s">
         <v>69</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>70</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A22" s="44" t="s">
         <v>71</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="44" t="s">
         <v>72</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A24" s="44" t="s">
         <v>73</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="44" t="s">
         <v>74</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A26" s="44" t="s">
         <v>75</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.3">
       <c r="A27" s="44" t="s">
         <v>76</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A28" s="44" t="s">
         <v>77</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="44" t="s">
         <v>78</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
         <v>79</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>80</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A32" s="44" t="s">
         <v>81</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="120" x14ac:dyDescent="0.3">
       <c r="A33" s="44" t="s">
         <v>82</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A34" s="44" t="s">
         <v>83</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>84</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.3">
       <c r="A36" s="44" t="s">
         <v>85</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A37" s="44" t="s">
         <v>86</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" s="44" t="s">
         <v>87</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
         <v>88</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
         <v>89</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="135" x14ac:dyDescent="0.3">
       <c r="A41" s="44" t="s">
         <v>90</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A42" s="44" t="s">
         <v>91</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="165" x14ac:dyDescent="0.3">
       <c r="A43" s="44" t="s">
         <v>92</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="105" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>93</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
         <v>148</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
         <v>149</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A47" s="44" t="s">
         <v>150</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A48" s="44" t="s">
         <v>151</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="44" t="s">
         <v>152</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="44" t="s">
         <v>153</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
         <v>155</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.3">
       <c r="A52" s="44" t="s">
         <v>168</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>169</v>
       </c>
@@ -3006,47 +3006,47 @@
       <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" style="17" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" style="17" customWidth="1"/>
-    <col min="230" max="16384" width="11.5703125" style="17"/>
+    <col min="1" max="1" width="4.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="17" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="17" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" style="17" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" style="17" customWidth="1"/>
+    <col min="230" max="16384" width="11.5546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" s="16"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="C7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3174,7 +3174,7 @@
       </c>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3277,49 +3277,49 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3495,7 +3495,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -3569,51 +3569,51 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" zoomScale="114" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -3660,11 +3660,11 @@
         <v>136</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -3685,11 +3685,11 @@
         <v>139</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="H11" s="23"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="H12" s="23"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -3760,11 +3760,11 @@
         <v>139</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -3885,11 +3885,11 @@
         <v>142</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -3910,11 +3910,11 @@
         <v>142</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
@@ -4014,7 +4014,7 @@
       </c>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
@@ -4048,51 +4048,51 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.7109375" customWidth="1"/>
-    <col min="9" max="229" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="66.6640625" customWidth="1"/>
+    <col min="9" max="229" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.2" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>58</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="H9" s="34"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>59</v>
       </c>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="H10" s="34"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>60</v>
       </c>
@@ -4193,7 +4193,7 @@
       </c>
       <c r="H11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
@@ -4218,7 +4218,7 @@
       </c>
       <c r="H12" s="34"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="H13" s="34"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>63</v>
       </c>
@@ -4268,7 +4268,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="H15" s="34"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>65</v>
       </c>
@@ -4318,7 +4318,7 @@
       </c>
       <c r="H16" s="34"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>66</v>
       </c>
@@ -4343,7 +4343,7 @@
       </c>
       <c r="H17" s="34"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>67</v>
       </c>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="H18" s="34"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>68</v>
       </c>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="H19" s="34"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>69</v>
       </c>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="H20" s="34"/>
     </row>
-    <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>70</v>
       </c>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="H21" s="34"/>
     </row>
-    <row r="22" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>71</v>
       </c>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="H22" s="34"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>72</v>
       </c>
